--- a/data/144/SCB/IndKaputnSNI07Kv.xlsx
+++ b/data/144/SCB/IndKaputnSNI07Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <x:si>
     <x:t>Industrial capacity utilisation, actual utilisation, calendar adjusted and seasonally adjusted, percent by industrial classification NACE Rev. 2 and quarter</x:t>
   </x:si>
@@ -400,6 +400,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">B+C mining, quarrying, manufacturing </x:t>
   </x:si>
   <x:si>
@@ -424,7 +427,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211119 09:30</x:t>
+    <x:t>20220221 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -493,7 +496,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0.0"/>
+    <x:numFmt numFmtId="165" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -547,41 +550,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -592,7 +592,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -875,27 +875,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:DX50"/>
+  <x:dimension ref="A1:DY50"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="128" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="129" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:128">
+    <x:row r="1" spans="1:129">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:128">
+    <x:row r="3" spans="1:129">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1277,10 +1276,13 @@
       <x:c r="DX3" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:128">
+      <x:c r="DY3" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:129">
       <x:c r="A4" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>87.5</x:v>
@@ -1298,7 +1300,7 @@
         <x:v>85.5</x:v>
       </x:c>
       <x:c r="G4" s="3" t="n">
-        <x:v>83.7</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="H4" s="3" t="n">
         <x:v>82.6</x:v>
@@ -1661,12 +1663,15 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="DX4" s="3" t="n">
-        <x:v>90.4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:128">
+        <x:v>90.7</x:v>
+      </x:c>
+      <x:c r="DY4" s="3" t="n">
+        <x:v>90.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:129">
       <x:c r="A5" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
         <x:v>80.6</x:v>
@@ -1807,10 +1812,10 @@
         <x:v>86.1</x:v>
       </x:c>
       <x:c r="AV5" s="3" t="n">
-        <x:v>85.7</x:v>
+        <x:v>85.6</x:v>
       </x:c>
       <x:c r="AW5" s="3" t="n">
-        <x:v>86.2</x:v>
+        <x:v>86.1</x:v>
       </x:c>
       <x:c r="AX5" s="3" t="n">
         <x:v>86</x:v>
@@ -1819,7 +1824,7 @@
         <x:v>86.5</x:v>
       </x:c>
       <x:c r="AZ5" s="3" t="n">
-        <x:v>86.8</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="BA5" s="3" t="n">
         <x:v>86.9</x:v>
@@ -1837,10 +1842,10 @@
         <x:v>86.2</x:v>
       </x:c>
       <x:c r="BF5" s="3" t="n">
-        <x:v>86.6</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="BG5" s="3" t="n">
-        <x:v>86.6</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="BH5" s="3" t="n">
         <x:v>86.2</x:v>
@@ -1855,37 +1860,37 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="BL5" s="3" t="n">
-        <x:v>86.8</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="BM5" s="3" t="n">
         <x:v>86.8</x:v>
       </x:c>
       <x:c r="BN5" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="BO5" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="BP5" s="3" t="n">
-        <x:v>84.3</x:v>
+        <x:v>84.2</x:v>
       </x:c>
       <x:c r="BQ5" s="3" t="n">
-        <x:v>83.6</x:v>
+        <x:v>83.5</x:v>
       </x:c>
       <x:c r="BR5" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="BS5" s="3" t="n">
-        <x:v>84.3</x:v>
+        <x:v>84.4</x:v>
       </x:c>
       <x:c r="BT5" s="3" t="n">
-        <x:v>84.2</x:v>
+        <x:v>84.1</x:v>
       </x:c>
       <x:c r="BU5" s="3" t="n">
         <x:v>85.4</x:v>
       </x:c>
       <x:c r="BV5" s="3" t="n">
-        <x:v>85.3</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="BW5" s="3" t="n">
         <x:v>84.6</x:v>
@@ -1894,7 +1899,7 @@
         <x:v>84.2</x:v>
       </x:c>
       <x:c r="BY5" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.7</x:v>
       </x:c>
       <x:c r="BZ5" s="3" t="n">
         <x:v>83.6</x:v>
@@ -1906,7 +1911,7 @@
         <x:v>84.8</x:v>
       </x:c>
       <x:c r="CC5" s="3" t="n">
-        <x:v>83.6</x:v>
+        <x:v>83.5</x:v>
       </x:c>
       <x:c r="CD5" s="3" t="n">
         <x:v>85</x:v>
@@ -1939,7 +1944,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="CN5" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="CO5" s="3" t="n">
         <x:v>82.4</x:v>
@@ -1960,7 +1965,7 @@
         <x:v>82.7</x:v>
       </x:c>
       <x:c r="CU5" s="3" t="n">
-        <x:v>83.2</x:v>
+        <x:v>83.3</x:v>
       </x:c>
       <x:c r="CV5" s="3" t="n">
         <x:v>82.9</x:v>
@@ -1969,114 +1974,117 @@
         <x:v>82.7</x:v>
       </x:c>
       <x:c r="CX5" s="3" t="n">
-        <x:v>83.1</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="CY5" s="3" t="n">
         <x:v>81.4</x:v>
       </x:c>
       <x:c r="CZ5" s="3" t="n">
-        <x:v>82.2</x:v>
+        <x:v>82.1</x:v>
       </x:c>
       <x:c r="DA5" s="3" t="n">
         <x:v>82.2</x:v>
       </x:c>
       <x:c r="DB5" s="3" t="n">
-        <x:v>81.7</x:v>
+        <x:v>81.6</x:v>
       </x:c>
       <x:c r="DC5" s="3" t="n">
+        <x:v>82.6</x:v>
+      </x:c>
+      <x:c r="DD5" s="3" t="n">
         <x:v>82.5</x:v>
-      </x:c>
-      <x:c r="DD5" s="3" t="n">
-        <x:v>82.6</x:v>
       </x:c>
       <x:c r="DE5" s="3" t="n">
         <x:v>81.8</x:v>
       </x:c>
       <x:c r="DF5" s="3" t="n">
-        <x:v>82.2</x:v>
+        <x:v>82.1</x:v>
       </x:c>
       <x:c r="DG5" s="3" t="n">
-        <x:v>84.2</x:v>
+        <x:v>84.5</x:v>
       </x:c>
       <x:c r="DH5" s="3" t="n">
-        <x:v>83.3</x:v>
+        <x:v>83.2</x:v>
       </x:c>
       <x:c r="DI5" s="3" t="n">
-        <x:v>85.8</x:v>
+        <x:v>85.7</x:v>
       </x:c>
       <x:c r="DJ5" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.2</x:v>
       </x:c>
       <x:c r="DK5" s="3" t="n">
-        <x:v>85.6</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="DL5" s="3" t="n">
-        <x:v>85.6</x:v>
+        <x:v>85.5</x:v>
       </x:c>
       <x:c r="DM5" s="3" t="n">
+        <x:v>86.1</x:v>
+      </x:c>
+      <x:c r="DN5" s="3" t="n">
+        <x:v>86.4</x:v>
+      </x:c>
+      <x:c r="DO5" s="3" t="n">
+        <x:v>85.9</x:v>
+      </x:c>
+      <x:c r="DP5" s="3" t="n">
+        <x:v>87.5</x:v>
+      </x:c>
+      <x:c r="DQ5" s="3" t="n">
+        <x:v>86.7</x:v>
+      </x:c>
+      <x:c r="DR5" s="3" t="n">
+        <x:v>86.3</x:v>
+      </x:c>
+      <x:c r="DS5" s="3" t="n">
+        <x:v>84.1</x:v>
+      </x:c>
+      <x:c r="DT5" s="3" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="DU5" s="3" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="DV5" s="3" t="n">
         <x:v>86.2</x:v>
       </x:c>
-      <x:c r="DN5" s="3" t="n">
-        <x:v>86.7</x:v>
-      </x:c>
-      <x:c r="DO5" s="3" t="n">
-        <x:v>85.3</x:v>
-      </x:c>
-      <x:c r="DP5" s="3" t="n">
-        <x:v>87.6</x:v>
-      </x:c>
-      <x:c r="DQ5" s="3" t="n">
-        <x:v>86.9</x:v>
-      </x:c>
-      <x:c r="DR5" s="3" t="n">
-        <x:v>86.6</x:v>
-      </x:c>
-      <x:c r="DS5" s="3" t="n">
-        <x:v>83.5</x:v>
-      </x:c>
-      <x:c r="DT5" s="3" t="n">
-        <x:v>85.1</x:v>
-      </x:c>
-      <x:c r="DU5" s="3" t="n">
-        <x:v>85.1</x:v>
-      </x:c>
-      <x:c r="DV5" s="3" t="n">
-        <x:v>86.6</x:v>
-      </x:c>
       <x:c r="DW5" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>91.6</x:v>
       </x:c>
       <x:c r="DX5" s="3" t="n">
-        <x:v>90.7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:128">
+        <x:v>91.4</x:v>
+      </x:c>
+      <x:c r="DY5" s="3" t="n">
+        <x:v>91.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:129">
       <x:c r="A6" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B6" s="3" t="n">
-        <x:v>86.7</x:v>
+        <x:v>86.8</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>86.9</x:v>
       </x:c>
       <x:c r="D6" s="3" t="n">
-        <x:v>86.6</x:v>
+        <x:v>86.5</x:v>
       </x:c>
       <x:c r="E6" s="3" t="n">
         <x:v>86</x:v>
       </x:c>
       <x:c r="F6" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>87.7</x:v>
       </x:c>
       <x:c r="G6" s="3" t="n">
-        <x:v>83.7</x:v>
+        <x:v>83.8</x:v>
       </x:c>
       <x:c r="H6" s="3" t="n">
         <x:v>82.6</x:v>
       </x:c>
       <x:c r="I6" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="J6" s="3" t="n">
         <x:v>80.5</x:v>
@@ -2085,37 +2093,37 @@
         <x:v>79.6</x:v>
       </x:c>
       <x:c r="L6" s="3" t="n">
-        <x:v>79.4</x:v>
+        <x:v>79.5</x:v>
       </x:c>
       <x:c r="M6" s="3" t="n">
-        <x:v>79.3</x:v>
+        <x:v>79.2</x:v>
       </x:c>
       <x:c r="N6" s="3" t="n">
-        <x:v>80.1</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O6" s="3" t="n">
-        <x:v>82.2</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="P6" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="Q6" s="3" t="n">
-        <x:v>84.1</x:v>
+        <x:v>84.2</x:v>
       </x:c>
       <x:c r="R6" s="3" t="n">
         <x:v>86.1</x:v>
       </x:c>
       <x:c r="S6" s="3" t="n">
-        <x:v>85</x:v>
+        <x:v>85.1</x:v>
       </x:c>
       <x:c r="T6" s="3" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="U6" s="3" t="n">
-        <x:v>85.8</x:v>
+        <x:v>85.9</x:v>
       </x:c>
       <x:c r="V6" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>87.1</x:v>
       </x:c>
       <x:c r="W6" s="3" t="n">
         <x:v>86.6</x:v>
@@ -2136,67 +2144,67 @@
         <x:v>83.4</x:v>
       </x:c>
       <x:c r="AC6" s="3" t="n">
-        <x:v>83.5</x:v>
+        <x:v>83.4</x:v>
       </x:c>
       <x:c r="AD6" s="3" t="n">
-        <x:v>84.5</x:v>
+        <x:v>84.2</x:v>
       </x:c>
       <x:c r="AE6" s="3" t="n">
-        <x:v>87.2</x:v>
+        <x:v>87.4</x:v>
       </x:c>
       <x:c r="AF6" s="3" t="n">
+        <x:v>88.1</x:v>
+      </x:c>
+      <x:c r="AG6" s="3" t="n">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="AG6" s="3" t="n">
-        <x:v>88.1</x:v>
-      </x:c>
       <x:c r="AH6" s="3" t="n">
-        <x:v>92.2</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="AI6" s="3" t="n">
         <x:v>91.4</x:v>
       </x:c>
       <x:c r="AJ6" s="3" t="n">
-        <x:v>90.8</x:v>
+        <x:v>90.9</x:v>
       </x:c>
       <x:c r="AK6" s="3" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="AL6" s="3" t="n">
-        <x:v>88.7</x:v>
+        <x:v>88.6</x:v>
       </x:c>
       <x:c r="AM6" s="3" t="n">
-        <x:v>87.2</x:v>
+        <x:v>87.3</x:v>
       </x:c>
       <x:c r="AN6" s="3" t="n">
         <x:v>88.4</x:v>
       </x:c>
       <x:c r="AO6" s="3" t="n">
-        <x:v>89.1</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="AP6" s="3" t="n">
         <x:v>89.9</x:v>
       </x:c>
       <x:c r="AQ6" s="3" t="n">
-        <x:v>89.6</x:v>
+        <x:v>89.5</x:v>
       </x:c>
       <x:c r="AR6" s="3" t="n">
-        <x:v>88.3</x:v>
+        <x:v>88.2</x:v>
       </x:c>
       <x:c r="AS6" s="3" t="n">
-        <x:v>86.9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="AT6" s="3" t="n">
         <x:v>83.4</x:v>
       </x:c>
       <x:c r="AU6" s="3" t="n">
-        <x:v>84.5</x:v>
+        <x:v>84.4</x:v>
       </x:c>
       <x:c r="AV6" s="3" t="n">
-        <x:v>84.2</x:v>
+        <x:v>84.1</x:v>
       </x:c>
       <x:c r="AW6" s="3" t="n">
-        <x:v>84</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="AX6" s="3" t="n">
         <x:v>83.1</x:v>
@@ -2208,25 +2216,25 @@
         <x:v>82.7</x:v>
       </x:c>
       <x:c r="BA6" s="3" t="n">
-        <x:v>82.5</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="BB6" s="3" t="n">
         <x:v>83</x:v>
       </x:c>
       <x:c r="BC6" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="BD6" s="3" t="n">
         <x:v>82.4</x:v>
       </x:c>
       <x:c r="BE6" s="3" t="n">
-        <x:v>84.5</x:v>
+        <x:v>84.4</x:v>
       </x:c>
       <x:c r="BF6" s="3" t="n">
-        <x:v>85.1</x:v>
+        <x:v>85.2</x:v>
       </x:c>
       <x:c r="BG6" s="3" t="n">
-        <x:v>86.3</x:v>
+        <x:v>86.2</x:v>
       </x:c>
       <x:c r="BH6" s="3" t="n">
         <x:v>85.1</x:v>
@@ -2238,7 +2246,7 @@
         <x:v>84.4</x:v>
       </x:c>
       <x:c r="BK6" s="3" t="n">
-        <x:v>84.7</x:v>
+        <x:v>84.9</x:v>
       </x:c>
       <x:c r="BL6" s="3" t="n">
         <x:v>85.6</x:v>
@@ -2247,10 +2255,10 @@
         <x:v>85.6</x:v>
       </x:c>
       <x:c r="BN6" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>87.6</x:v>
       </x:c>
       <x:c r="BO6" s="3" t="n">
-        <x:v>87.5</x:v>
+        <x:v>87.4</x:v>
       </x:c>
       <x:c r="BP6" s="3" t="n">
         <x:v>88.1</x:v>
@@ -2259,16 +2267,16 @@
         <x:v>88.6</x:v>
       </x:c>
       <x:c r="BR6" s="3" t="n">
+        <x:v>86.7</x:v>
+      </x:c>
+      <x:c r="BS6" s="3" t="n">
         <x:v>86.5</x:v>
       </x:c>
-      <x:c r="BS6" s="3" t="n">
-        <x:v>86.7</x:v>
-      </x:c>
       <x:c r="BT6" s="3" t="n">
-        <x:v>87.1</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="BU6" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="BV6" s="3" t="n">
         <x:v>87</x:v>
@@ -2280,7 +2288,7 @@
         <x:v>83.9</x:v>
       </x:c>
       <x:c r="BY6" s="3" t="n">
-        <x:v>81.1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BZ6" s="3" t="n">
         <x:v>79.1</x:v>
@@ -2304,10 +2312,10 @@
         <x:v>89.8</x:v>
       </x:c>
       <x:c r="CG6" s="3" t="n">
+        <x:v>89.8</x:v>
+      </x:c>
+      <x:c r="CH6" s="3" t="n">
         <x:v>89.7</x:v>
-      </x:c>
-      <x:c r="CH6" s="3" t="n">
-        <x:v>89.6</x:v>
       </x:c>
       <x:c r="CI6" s="3" t="n">
         <x:v>89.4</x:v>
@@ -2316,19 +2324,19 @@
         <x:v>88.7</x:v>
       </x:c>
       <x:c r="CK6" s="3" t="n">
-        <x:v>89.2</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="CL6" s="3" t="n">
-        <x:v>87.9</x:v>
+        <x:v>88.1</x:v>
       </x:c>
       <x:c r="CM6" s="3" t="n">
-        <x:v>90.6</x:v>
+        <x:v>90.5</x:v>
       </x:c>
       <x:c r="CN6" s="3" t="n">
-        <x:v>87.4</x:v>
+        <x:v>87.3</x:v>
       </x:c>
       <x:c r="CO6" s="3" t="n">
-        <x:v>87.4</x:v>
+        <x:v>87.3</x:v>
       </x:c>
       <x:c r="CP6" s="3" t="n">
         <x:v>88.6</x:v>
@@ -2337,10 +2345,10 @@
         <x:v>88.1</x:v>
       </x:c>
       <x:c r="CR6" s="3" t="n">
-        <x:v>86.9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="CS6" s="3" t="n">
-        <x:v>87.5</x:v>
+        <x:v>87.3</x:v>
       </x:c>
       <x:c r="CT6" s="3" t="n">
         <x:v>90.3</x:v>
@@ -2349,96 +2357,99 @@
         <x:v>90.9</x:v>
       </x:c>
       <x:c r="CV6" s="3" t="n">
-        <x:v>92.2</x:v>
+        <x:v>92.3</x:v>
       </x:c>
       <x:c r="CW6" s="3" t="n">
-        <x:v>93.2</x:v>
+        <x:v>92.8</x:v>
       </x:c>
       <x:c r="CX6" s="3" t="n">
+        <x:v>91.5</x:v>
+      </x:c>
+      <x:c r="CY6" s="3" t="n">
         <x:v>91.6</x:v>
       </x:c>
-      <x:c r="CY6" s="3" t="n">
-        <x:v>91.5</x:v>
-      </x:c>
       <x:c r="CZ6" s="3" t="n">
-        <x:v>92.3</x:v>
+        <x:v>92.7</x:v>
       </x:c>
       <x:c r="DA6" s="3" t="n">
-        <x:v>91.9</x:v>
+        <x:v>91.4</x:v>
       </x:c>
       <x:c r="DB6" s="3" t="n">
         <x:v>90.6</x:v>
       </x:c>
       <x:c r="DC6" s="3" t="n">
-        <x:v>91</x:v>
+        <x:v>91.3</x:v>
       </x:c>
       <x:c r="DD6" s="3" t="n">
-        <x:v>90.4</x:v>
+        <x:v>90.9</x:v>
       </x:c>
       <x:c r="DE6" s="3" t="n">
-        <x:v>87.9</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="DF6" s="3" t="n">
-        <x:v>89.8</x:v>
+        <x:v>90.2</x:v>
       </x:c>
       <x:c r="DG6" s="3" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="DH6" s="3" t="n">
-        <x:v>89.5</x:v>
+        <x:v>90.1</x:v>
       </x:c>
       <x:c r="DI6" s="3" t="n">
-        <x:v>92.5</x:v>
+        <x:v>91.3</x:v>
       </x:c>
       <x:c r="DJ6" s="3" t="n">
-        <x:v>91.1</x:v>
+        <x:v>91.6</x:v>
       </x:c>
       <x:c r="DK6" s="3" t="n">
-        <x:v>92.5</x:v>
+        <x:v>92.6</x:v>
       </x:c>
       <x:c r="DL6" s="3" t="n">
-        <x:v>92.1</x:v>
+        <x:v>92.6</x:v>
       </x:c>
       <x:c r="DM6" s="3" t="n">
-        <x:v>89</x:v>
+        <x:v>87.7</x:v>
       </x:c>
       <x:c r="DN6" s="3" t="n">
-        <x:v>92.1</x:v>
+        <x:v>92.7</x:v>
       </x:c>
       <x:c r="DO6" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="DP6" s="3" t="n">
-        <x:v>93.4</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="DQ6" s="3" t="n">
-        <x:v>92.4</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="DR6" s="3" t="n">
+        <x:v>85.6</x:v>
+      </x:c>
+      <x:c r="DS6" s="3" t="n">
+        <x:v>84.7</x:v>
+      </x:c>
+      <x:c r="DT6" s="3" t="n">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="DS6" s="3" t="n">
-        <x:v>84.6</x:v>
-      </x:c>
-      <x:c r="DT6" s="3" t="n">
-        <x:v>84.5</x:v>
-      </x:c>
       <x:c r="DU6" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>86.2</x:v>
       </x:c>
       <x:c r="DV6" s="3" t="n">
-        <x:v>86.8</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="DW6" s="3" t="n">
-        <x:v>94.7</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="DX6" s="3" t="n">
-        <x:v>94.7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:128">
+        <x:v>94.6</x:v>
+      </x:c>
+      <x:c r="DY6" s="3" t="n">
+        <x:v>95.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:129">
       <x:c r="A7" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B7" s="3" t="n">
         <x:v>87.3</x:v>
@@ -2744,10 +2755,10 @@
         <x:v>88.7</x:v>
       </x:c>
       <x:c r="CY7" s="3" t="n">
-        <x:v>88.3</x:v>
+        <x:v>88.4</x:v>
       </x:c>
       <x:c r="CZ7" s="3" t="n">
-        <x:v>88.8</x:v>
+        <x:v>88.9</x:v>
       </x:c>
       <x:c r="DA7" s="3" t="n">
         <x:v>88.8</x:v>
@@ -2777,13 +2788,13 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="DJ7" s="3" t="n">
-        <x:v>90.1</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="DK7" s="3" t="n">
         <x:v>90.7</x:v>
       </x:c>
       <x:c r="DL7" s="3" t="n">
-        <x:v>90.9</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="DM7" s="3" t="n">
         <x:v>90.7</x:v>
@@ -2819,144 +2830,143 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="DX7" s="3" t="n">
-        <x:v>90.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:128">
+        <x:v>90.6</x:v>
+      </x:c>
+      <x:c r="DY7" s="3" t="n">
+        <x:v>90.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:129">
       <x:c r="A9" s="4" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:128">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:129">
       <x:c r="A10" s="4" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:128">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:129">
       <x:c r="A11" s="4" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:128">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:129">
       <x:c r="A13" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:128">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:129">
       <x:c r="A14" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:128">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:129">
       <x:c r="A16" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:128">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:129">
       <x:c r="A17" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:128">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:129">
       <x:c r="A19" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:128">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:129">
       <x:c r="A20" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:128">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:129">
       <x:c r="A21" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:128">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:129">
       <x:c r="A22" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:128">
-      <x:c r="A23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:128">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:129">
       <x:c r="A24" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:128">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:129">
       <x:c r="A25" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:128">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:129">
       <x:c r="A26" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:128">
-      <x:c r="A27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:128">
-      <x:c r="A28" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:128">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:129">
       <x:c r="A31" s="0" t="s">
-        <x:v>146</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:128">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:129">
       <x:c r="A32" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:128">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:129">
       <x:c r="A34" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:128">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:129">
       <x:c r="A35" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:128">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:129">
       <x:c r="A40" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:128">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:129">
       <x:c r="A42" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:128">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:129">
       <x:c r="A44" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:128">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:129">
       <x:c r="A46" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:128">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:129">
       <x:c r="A47" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:128">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:129">
       <x:c r="A49" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:128">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:129">
       <x:c r="A50" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A9:DY9"/>
+    <x:mergeCell ref="A10:DY10"/>
+    <x:mergeCell ref="A11:DY11"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
